--- a/aiurt-module-system/src/main/resources/templates/emergencyRehearsalYearError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyRehearsalYearError.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\aiurt-platform\aiurt-module-system\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4325988-C227-42C3-B30B-B9274CD75E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA0E828-5352-4255-B482-4024A597A263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,6 +25,92 @@
     <t>年度演练计划导入模板</t>
   </si>
   <si>
+    <t xml:space="preserve">计划名称 </t>
+  </si>
+  <si>
+    <t>演练计划</t>
+  </si>
+  <si>
+    <t>演练类型</t>
+  </si>
+  <si>
+    <t>演练科目</t>
+  </si>
+  <si>
+    <t>依托预案</t>
+  </si>
+  <si>
+    <t>预案版本</t>
+  </si>
+  <si>
+    <t>演练形式</t>
+  </si>
+  <si>
+    <t>组织部门</t>
+  </si>
+  <si>
+    <t>演练时间</t>
+  </si>
+  <si>
+    <t>必须体现环节</t>
+  </si>
+  <si>
+    <t>错误原因</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.year</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.typeName</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.subject</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.schemeName</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.schemeVersion</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.modalityName</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.orgName</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.rehearsalTime</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.step</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>所属年份</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.yearMistake</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>t.mouthMistake}}</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{$fe:maplist t.name</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>年度演练计划导入模板</t>
     </r>
@@ -32,6 +118,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -45,6 +132,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>字段说明：</t>
@@ -54,6 +142,7 @@
         <b/>
         <sz val="10"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -64,11 +153,12 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>年份：比如：2023
 演练类型：单项应急预案/综合应急预案/现场处置方案；
-预案版本：比如：v1.0;
+预案版本：比如：1.0;
 演练形式：实战演练/桌面推演
 演练时间：年月，比如：</t>
     </r>
@@ -84,95 +174,11 @@
       <rPr>
         <sz val="10"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>；</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">计划名称 </t>
-  </si>
-  <si>
-    <t>演练计划</t>
-  </si>
-  <si>
-    <t>演练类型</t>
-  </si>
-  <si>
-    <t>演练科目</t>
-  </si>
-  <si>
-    <t>依托预案</t>
-  </si>
-  <si>
-    <t>预案版本</t>
-  </si>
-  <si>
-    <t>演练形式</t>
-  </si>
-  <si>
-    <t>组织部门</t>
-  </si>
-  <si>
-    <t>演练时间</t>
-  </si>
-  <si>
-    <t>必须体现环节</t>
-  </si>
-  <si>
-    <t>错误原因</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{$fe:mapList t.name</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.year</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.typeName</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.subject</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.schemeName</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.schemeVersion</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.modalityName</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.orgName</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.rehearsalTime</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.step</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>所属年份</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.yearMistake</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>t.mouthMistake}}</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -192,6 +198,7 @@
       <b/>
       <sz val="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -199,23 +206,27 @@
       <b/>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -225,14 +236,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -248,14 +251,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -276,7 +271,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -284,95 +279,48 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -660,133 +608,134 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.5" customWidth="1"/>
-    <col min="2" max="3" width="20.625" customWidth="1"/>
-    <col min="4" max="12" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="47.5" style="11" customWidth="1"/>
+    <col min="2" max="3" width="20.625" style="11" customWidth="1"/>
+    <col min="4" max="12" width="15.625" style="11" customWidth="1"/>
+    <col min="13" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
     <row r="2" spans="1:12" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
+      <c r="A2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="4" t="s">
-        <v>12</v>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="1" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="4"/>
+      <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="E5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="I5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="J5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>25</v>
+      <c r="L5" s="11" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
